--- a/excel_with_subclasses/basic/upland.xlsx
+++ b/excel_with_subclasses/basic/upland.xlsx
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,114 +548,114 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q12153523</t>
+          <t>Q1228360</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Scythian kurgan</t>
+          <t>disc barrow</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q5737_курган</t>
+          <t>Q34023_тумулус</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q1228360</t>
+          <t>Q1253315</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>disc barrow</t>
+          <t>downland</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q1253315</t>
+          <t>Q1254169</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>downland</t>
+          <t>compound dune</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q1254169</t>
+          <t>Q1260913</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>compound dune</t>
+          <t>moot hill</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q25391_дюна</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q1260913</t>
+          <t>Q1351659</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>moot hill</t>
+          <t>oval barrow</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q34023_тумулус</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q1351659</t>
+          <t>Q1368970</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>oval barrow</t>
+          <t>volcanic cone</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q1368970</t>
+          <t>Q1492017</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>volcanic cone</t>
+          <t>Галгенберг</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -667,46 +667,46 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q1492017</t>
+          <t>Q1606926</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Галгенберг</t>
+          <t>coastal dune</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q1606926</t>
+          <t>Q16521369</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>coastal dune</t>
+          <t>Kunhalom</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q25391_дюна</t>
+          <t>Q34023_тумулус</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q16521369</t>
+          <t>Q1652352</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kunhalom</t>
+          <t>Длинный курган</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -718,29 +718,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q1652352</t>
+          <t>Q16531032</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Длинный курган</t>
+          <t>Байджерахи</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q16531032</t>
+          <t>Q16948722</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Байджерахи</t>
+          <t>Dewey</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -752,12 +752,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q16948722</t>
+          <t>Q17189807</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dewey</t>
+          <t>baou</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -769,46 +769,46 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q17189807</t>
+          <t>Q17412974</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>baou</t>
+          <t>unchambered long barrow</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q1652352_Длинный курган</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q17412974</t>
+          <t>Q18018204</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>unchambered long barrow</t>
+          <t>aklé</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q1652352_Длинный курган</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q18018204</t>
+          <t>Q18024432</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>aklé</t>
+          <t>longitudinal dune</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -820,46 +820,46 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q18024432</t>
+          <t>Q192701</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>longitudinal dune</t>
+          <t>Друмлин</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q25391_дюна</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q192701</t>
+          <t>Q19922100</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Друмлин</t>
+          <t>tumuli in the Netherlands</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q34023_тумулус</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q19922100</t>
+          <t>Q19922104</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tumuli in the Netherlands</t>
+          <t>tumuli in Belgium</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -871,12 +871,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q19922104</t>
+          <t>Q19947271</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tumuli in Belgium</t>
+          <t>barrow</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -888,46 +888,46 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q19947271</t>
+          <t>Q2046310</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>barrow</t>
+          <t>Чашевидный курган</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q2046325_Круглый курган</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q2046310</t>
+          <t>Q2046325</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Чашевидный курган</t>
+          <t>Круглый курган</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Q2046325_Круглый курган</t>
+          <t>Q34023_тумулус</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q2046325</t>
+          <t>Q20529645</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Круглый курган</t>
+          <t>barrow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -939,46 +939,46 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q20529645</t>
+          <t>Q20572322</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>barrow</t>
+          <t>HuMP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q20572322</t>
+          <t>Q20627207</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HuMP</t>
+          <t>Тукуланы</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q20627207</t>
+          <t>Q21287582</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Тукуланы</t>
+          <t>embryonal dune</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -990,29 +990,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q21287582</t>
+          <t>Q2141230</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>embryonal dune</t>
+          <t>tumulus above cremated remains</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Q25391_дюна</t>
+          <t>Q34023_тумулус</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q2141230</t>
+          <t>Q21659312</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tumulus above cremated remains</t>
+          <t>Сопка</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1024,97 +1024,97 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q21659312</t>
+          <t>Q2206477</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Сопка</t>
+          <t>river dune</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q2206477</t>
+          <t>Q22569524</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>river dune</t>
+          <t>Graham</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Q25391_дюна</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q22569524</t>
+          <t>Q2338178</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Graham</t>
+          <t>estuarium dunes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q2338178</t>
+          <t>Q2451979</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>estuarium dunes</t>
+          <t>treudd</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Q25391_дюна</t>
+          <t>Q34023_тумулус</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q2451979</t>
+          <t>Q2459045</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>treudd</t>
+          <t>granite dome</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q2459045</t>
+          <t>Q25391</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>granite dome</t>
+          <t>дюна</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1126,63 +1126,63 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Q25391</t>
+          <t>Q2618174</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>дюна</t>
+          <t>поющий бархан</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Q2618174</t>
+          <t>Q26221546</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>поющий бархан</t>
+          <t>Runddysse</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q25391_дюна</t>
+          <t>Q34023_тумулус</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q26221546</t>
+          <t>Q26709961</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Runddysse</t>
+          <t>Tump</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Q26709961</t>
+          <t>Q26709966</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tump</t>
+          <t>Simm</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1194,12 +1194,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Q26709966</t>
+          <t>Q26709973</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Simm</t>
+          <t>Donald</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1211,12 +1211,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q26709973</t>
+          <t>Q26710654</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Donald</t>
+          <t>Highland Five</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1228,12 +1228,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Q26710654</t>
+          <t>Q26710662</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Highland Five</t>
+          <t>Donald Dewey</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1245,97 +1245,97 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Q26710662</t>
+          <t>Q2752513</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Donald Dewey</t>
+          <t>young dunes</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Q2752513</t>
+          <t>Q28026737</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>young dunes</t>
+          <t>Фьельды</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Q25391_дюна</t>
+          <t>Q54050_холм,Q5421955_Фьельды</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Q28026737</t>
+          <t>Q285562</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Фьельды</t>
+          <t>Мэрлин</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Q54050_холм,Q5421955_Фьельды</t>
+          <t>Q20572322_HuMP</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Q285562</t>
+          <t>Q2965335</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Мэрлин</t>
+          <t>old dunes</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Q20572322_HuMP</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Q2965335</t>
+          <t>Q2983016</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>old dunes</t>
+          <t>холм</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Q25391_дюна</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Q2983016</t>
+          <t>Q3294251</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>холм</t>
+          <t>hillock</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1347,114 +1347,114 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Q3294251</t>
+          <t>Q3380864</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>hillock</t>
+          <t>table hill</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q1260913_moot hill</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Q3380864</t>
+          <t>Q34023</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>table hill</t>
+          <t>тумулус</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Q1260913_moot hill</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Q34023</t>
+          <t>Q3634310</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>тумулус</t>
+          <t>bank barrow</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q34023_тумулус</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Q3634310</t>
+          <t>Q40006041</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>bank barrow</t>
+          <t>round cairn</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q2046310_Чашевидный курган</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Q40006041</t>
+          <t>Q42888697</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>round cairn</t>
+          <t>long barrow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Q2046310_Чашевидный курган</t>
+          <t>Q20529645_barrow</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Q42888697</t>
+          <t>Q4299169</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>long barrow</t>
+          <t>mill hill</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Q20529645_barrow</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Q4299169</t>
+          <t>Q4670743</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>mill hill</t>
+          <t>Abyssal hill</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Q4670743</t>
+          <t>Q47781632</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Abyssal hill</t>
+          <t>undersea hill</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1483,12 +1483,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Q47781632</t>
+          <t>Q4959757</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>undersea hill</t>
+          <t>breast-shaped hill</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1500,12 +1500,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Q4959757</t>
+          <t>Q502899</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>breast-shaped hill</t>
+          <t>inliers and outliers</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1517,80 +1517,80 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q502899</t>
+          <t>Q5069563</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>inliers and outliers</t>
+          <t>chambered long barrow</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q34023_тумулус,Q1652352_Длинный курган</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Q5069563</t>
+          <t>Q50810246</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>chambered long barrow</t>
+          <t>singing dune</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Q34023_тумулус,Q1652352_Длинный курган</t>
+          <t>Q25391_дюна,Q2618174_поющий бархан</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Q50810246</t>
+          <t>Q5212069</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>singing dune</t>
+          <t>Damb</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q25391_дюна,Q2618174_поющий бархан</t>
+          <t>Q34023_тумулус</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Q5212069</t>
+          <t>Q5421955</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Damb</t>
+          <t>Фьельды</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Q5421955</t>
+          <t>Q55182635</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Фьельды</t>
+          <t>undersea knoll</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1602,199 +1602,199 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q55182635</t>
+          <t>Q55691729</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>undersea knoll</t>
+          <t>grey dune</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q1606926_coastal dune</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Q55691729</t>
+          <t>Q5656540</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>grey dune</t>
+          <t>Hardy</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Q1606926_coastal dune</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Q5656540</t>
+          <t>Q573958</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hardy</t>
+          <t>chieftain's tomb</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q34023_тумулус</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Q5737</t>
+          <t>Q62082113</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>курган</t>
+          <t>Dodd</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Q573958</t>
+          <t>Q62088999</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>chieftain's tomb</t>
+          <t>knob</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Q34023_тумулус</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Q62082113</t>
+          <t>Q6502221</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Dodd</t>
+          <t>Lava cone</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q1368970_volcanic cone</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Q62088999</t>
+          <t>Q790510</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>knob</t>
+          <t>Бархан</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Q6502221</t>
+          <t>Q819511</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lava cone</t>
+          <t>Террикон</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q1368970_volcanic cone</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Q790510</t>
+          <t>Q843181</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Бархан</t>
+          <t>Schuttberg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Q25391_дюна</t>
+          <t>Q54050_холм</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Q819511</t>
+          <t>Q863906</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Террикон</t>
+          <t>inland dune</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Q843181</t>
+          <t>Q9379281</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Schuttberg</t>
+          <t>star dune</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Q54050_холм</t>
+          <t>Q25391_дюна</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q863906</t>
+          <t>Q9379282</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>inland dune</t>
+          <t>parabolic dune</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1806,49 +1806,15 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Q9379281</t>
+          <t>Q967448</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>star dune</t>
+          <t>bell barrow</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
-        <is>
-          <t>Q25391_дюна</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Q9379282</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>parabolic dune</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Q25391_дюна</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Q967448</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>bell barrow</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>Q34023_тумулус,Q2046325_Круглый курган</t>
         </is>
